--- a/2.0.1myLaya/Cfg/LevelItemRange.xlsx
+++ b/2.0.1myLaya/Cfg/LevelItemRange.xlsx
@@ -145,35 +145,35 @@
   </si>
   <si>
     <t>FloorRange</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Coin_Frequency</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Protect_2_Shift</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Protect_2_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Protect_2_Frequency</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Protect_1_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Protect_1_Shift</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Protect_1_Frequency</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -201,51 +201,51 @@
       </rPr>
       <t>_1_Frequency</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>HolyProtect_1_Shift</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>HolyProtect_1_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>HolyProtect_2_Frequency</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>HolyProtect_2_Shift</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>HolyProtect_2_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Fly_1_Frequency</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Fly_1_Shift</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Fly_1_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Fly_2_Frequency</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Fly_2_Shift</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Fly_2_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -273,40 +273,48 @@
       </rPr>
       <t>_1_Frequency</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collector_1_Frequency_1_Shift</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collector_1_Frequency_1_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Collector_2_Num</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Collector_2_Shift</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collector_1_Shift</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collector_1_Num</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Collector_2_Frequency</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -775,136 +783,139 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
@@ -1251,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1295,7 +1306,7 @@
     <col min="37" max="37" width="23.875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="32.75" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.375" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1543,20 +1554,20 @@
       <c r="AK2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>43</v>
@@ -2611,7 +2622,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2624,7 +2635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2637,7 +2648,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>